--- a/example1.xlsx
+++ b/example1.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="205" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="205"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Testcases" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$J$10</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>First Name</t>
   </si>
@@ -104,9 +107,6 @@
     <t>Hurn</t>
   </si>
   <si>
-    <t>Earlean</t>
-  </si>
-  <si>
     <t>Melgar</t>
   </si>
   <si>
@@ -189,12 +189,6 @@
   </si>
   <si>
     <t>Step4</t>
-  </si>
-  <si>
-    <t>Step5</t>
-  </si>
-  <si>
-    <t>User the logout button</t>
   </si>
   <si>
     <t>Verify the input file</t>
@@ -215,16 +209,40 @@
     <t>Verify the each columns should not have null values</t>
   </si>
   <si>
-    <t>Step6</t>
-  </si>
-  <si>
-    <t>Step7</t>
-  </si>
-  <si>
-    <t>Step8</t>
-  </si>
-  <si>
     <t>input file validation</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Validte the colums length</t>
+  </si>
+  <si>
+    <t>Validate the columns length
+First Name(10)
+Last Name(10)
+Gender(5)
+Country(15)
+Age(3)
+Date
+Id(5)
+Locations(20)
+Profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validte the age column </t>
+  </si>
+  <si>
+    <t>Verify age values do not have any negtives values</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Earleandsgffdsgg</t>
   </si>
 </sst>
 </file>
@@ -308,11 +326,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,310 +626,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1024" width="11.5703125"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <f>LEN(A2)</f>
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>6548</v>
       </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2">
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2">
         <v>250000</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B10" si="0">LEN(A3)</f>
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2456</v>
       </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3">
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3">
         <v>650000</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>56</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3598</v>
       </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4">
         <v>550000</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>25</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3549</v>
       </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5">
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5">
         <v>350000</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>36</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2587</v>
       </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6">
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6">
         <v>310000</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1582</v>
       </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7">
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7">
         <v>700000</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>32</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1562</v>
       </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8">
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8">
         <v>219000</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>20</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2554</v>
       </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9">
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9">
         <v>150000</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>58</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2468</v>
       </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10">
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10">
         <v>100000</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I10">
-    <sortCondition descending="1" ref="I1"/>
+  <sortState ref="A2:J10">
+    <sortCondition descending="1" ref="J1"/>
   </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -924,10 +982,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -937,53 +995,52 @@
     <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
       <c r="A1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -995,10 +1052,10 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1010,10 +1067,10 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1025,26 +1082,30 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+    <row r="6" spans="1:9" ht="54.75" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="D6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>59</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1055,7 +1116,7 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1068,7 +1129,7 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1081,7 +1142,7 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1090,7 +1151,62 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="D10" s="7"/>
+      <c r="A10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
